--- a/data/outputs/management_elsevier/103.xlsx
+++ b/data/outputs/management_elsevier/103.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS30"/>
+  <dimension ref="A1:BU30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +943,12 @@
           <t>2-s2.0-84951031176</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1690</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1144,6 +1160,12 @@
           <t>2-s2.0-84951733835</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2106</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1365,12 @@
           <t>2-s2.0-84961668056</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1109</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1562,6 +1590,12 @@
           <t>2-s2.0-84961588303</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1343</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1777,6 +1811,12 @@
           <t>2-s2.0-84941810288</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1267</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1996,6 +2036,12 @@
           <t>2-s2.0-84941810877</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1520</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2213,6 +2259,12 @@
           <t>2-s2.0-84941806714</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1241</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2424,6 +2476,12 @@
           <t>2-s2.0-84941806930</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1126</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2639,6 +2697,12 @@
           <t>2-s2.0-84941811604</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1820</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2846,6 +2910,12 @@
           <t>2-s2.0-84930817852</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>9211</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3053,6 +3123,12 @@
           <t>2-s2.0-84930819677</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1917</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3258,6 +3334,12 @@
           <t>2-s2.0-84953270462</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>19608</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3476,6 +3558,12 @@
         <is>
           <t>2-s2.0-84928590972</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>1101</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -3660,6 +3748,12 @@
           <t>2-s2.0-84928587881</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1129</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3863,6 +3957,12 @@
           <t>2-s2.0-84928588196</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2718</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4066,6 +4166,12 @@
           <t>2-s2.0-84928590820</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2027</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4273,6 +4379,12 @@
           <t>2-s2.0-84928588635</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>4246</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4492,6 +4604,12 @@
           <t>2-s2.0-84928586729</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2653</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4699,6 +4817,12 @@
           <t>2-s2.0-84928524940</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>3060</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4906,6 +5030,12 @@
           <t>2-s2.0-84928581616</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>4148</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5131,6 +5261,12 @@
           <t>2-s2.0-84926061117</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>3582</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5344,6 +5480,12 @@
           <t>2-s2.0-85027945422</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>3290</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5561,6 +5703,12 @@
           <t>2-s2.0-85027950994</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>4479</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5788,6 +5936,12 @@
           <t>2-s2.0-84961379151</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>2425</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5997,6 +6151,12 @@
           <t>2-s2.0-85027937596</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>3222</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6208,6 +6368,12 @@
           <t>2-s2.0-84921062512</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>2275</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6419,6 +6585,12 @@
           <t>2-s2.0-84921062429</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>7892</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6624,6 +6796,12 @@
           <t>2-s2.0-84921024787</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>4232</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6831,6 +7009,12 @@
           <t>2-s2.0-85027959034</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>6162</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
